--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220515_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220515_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -697,7 +697,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>WM</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>BRAVE</t>
@@ -1203,7 +1200,7 @@
         <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,7 +1278,7 @@
         <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1307,7 +1304,7 @@
         <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,7 +1330,7 @@
         <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1356,7 @@
         <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1385,7 +1382,7 @@
         <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1437,7 +1434,7 @@
         <v>227</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1489,7 +1486,7 @@
         <v>229</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1515,7 +1512,7 @@
         <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1541,7 +1538,7 @@
         <v>230</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1567,7 +1564,7 @@
         <v>224</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1590,7 @@
         <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1616,7 @@
         <v>225</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1642,7 @@
         <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1671,7 +1668,7 @@
         <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1697,7 +1694,7 @@
         <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1720,7 @@
         <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1775,7 +1772,7 @@
         <v>225</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1798,7 @@
         <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1827,7 +1824,7 @@
         <v>232</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1853,7 +1850,7 @@
         <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1879,7 +1876,7 @@
         <v>225</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1905,7 +1902,7 @@
         <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1931,7 +1928,7 @@
         <v>225</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1983,7 +1980,7 @@
         <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +2006,7 @@
         <v>234</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,7 +2032,7 @@
         <v>235</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2061,7 +2058,7 @@
         <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2087,7 +2084,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2113,7 +2110,7 @@
         <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2136,7 @@
         <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2162,7 @@
         <v>238</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2188,7 @@
         <v>239</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2217,7 +2214,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2243,7 +2240,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2269,7 +2266,7 @@
         <v>220</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2321,7 +2318,7 @@
         <v>243</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2451,7 +2448,7 @@
         <v>240</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2477,7 +2474,7 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2555,7 +2552,7 @@
         <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2607,7 +2604,7 @@
         <v>227</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,7 +2630,7 @@
         <v>227</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2659,7 +2656,7 @@
         <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2685,7 +2682,7 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2708,7 @@
         <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2763,7 +2760,7 @@
         <v>227</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2789,7 +2786,7 @@
         <v>231</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2815,7 +2812,7 @@
         <v>232</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2867,7 +2864,7 @@
         <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2890,7 @@
         <v>220</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2971,7 +2968,7 @@
         <v>247</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2994,7 @@
         <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3023,7 +3020,7 @@
         <v>234</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3049,7 +3046,7 @@
         <v>230</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3075,7 +3072,7 @@
         <v>234</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3101,7 +3098,7 @@
         <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3153,7 +3150,7 @@
         <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3179,7 +3176,7 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3205,7 +3202,7 @@
         <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3231,7 +3228,7 @@
         <v>249</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3254,7 @@
         <v>250</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3283,7 +3280,7 @@
         <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3309,7 +3306,7 @@
         <v>251</v>
       </c>
       <c r="H83" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3332,10 +3329,10 @@
         <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3358,10 +3355,10 @@
         <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3387,7 +3384,7 @@
         <v>250</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3413,7 +3410,7 @@
         <v>224</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3439,7 +3436,7 @@
         <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3465,7 +3462,7 @@
         <v>220</v>
       </c>
       <c r="H89" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3514,10 +3511,10 @@
         <v>212</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3543,7 +3540,7 @@
         <v>227</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3592,10 +3589,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3618,10 +3615,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3644,10 +3641,10 @@
         <v>214</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,10 +3667,10 @@
         <v>215</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8">
